--- a/训练中心创客交叉融合空间建设/admin/清华大学创客交叉融合空间网络帐户列表.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/清华大学创客交叉融合空间网络帐户列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>清华大学</t>
   </si>
@@ -79,6 +79,24 @@
   </si>
   <si>
     <t>youtube.com</t>
+  </si>
+  <si>
+    <t>微信公众平台</t>
+  </si>
+  <si>
+    <t>mp.weixin.qq.com</t>
+  </si>
+  <si>
+    <t>tsinghua</t>
+  </si>
+  <si>
+    <t>thuinterfusionspace@gmail.com</t>
+  </si>
+  <si>
+    <t>新浪微博</t>
+  </si>
+  <si>
+    <t>weibo.com</t>
   </si>
 </sst>
 </file>
@@ -475,17 +493,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -582,6 +600,34 @@
       </c>
       <c r="D7" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
